--- a/public/static/人员伤亡统计表.xlsx
+++ b/public/static/人员伤亡统计表.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\big_project\yaan_project\yaan-vue3\public\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359DA038-6B70-44DF-BB6C-5705EA011F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC1155C-7DE4-4CF4-ACA1-0ABF32E35480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="人员伤亡" sheetId="1" r:id="rId1"/>
+    <sheet name="字段填写说明表" sheetId="3" r:id="rId2"/>
+    <sheet name="雅安市县区列表" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,14 +33,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>震区</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+  <si>
+    <t>人员伤亡</t>
   </si>
   <si>
     <t>统计截止时间</t>
   </si>
   <si>
+    <t>受灾人数累积</t>
+  </si>
+  <si>
     <t>新增遇难（人）</t>
   </si>
   <si>
@@ -57,34 +62,104 @@
     <t>累计受伤（人）</t>
   </si>
   <si>
-    <t>综合协调组（市应急管理局、市卫生健康委）</t>
-  </si>
-  <si>
-    <t>填写单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.各项内容由各工作组负责填报，牵头单位协调相关成员单位整理填写，县（区）政府协助。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>九龙镇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员伤亡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>震区（县/区）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅安市县区列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨城区</t>
+  </si>
+  <si>
+    <t>雨城区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名山区</t>
+  </si>
+  <si>
+    <t>荥经县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝兴县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦山县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天全县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>石棉县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉源县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增遇难（人）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本区县累积受灾人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本区县新增遇难人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本区县新增失联人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本区县新增受伤人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本区县累计遇难人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本区县累计失联人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本区县累计受伤人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失联（人）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计截止时间，精确到天，可下拉自动填充当前日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报数据所属区县名称，可通过下拉框选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写单位：综合协调组（市应急管理局、市卫生健康委）</t>
+  </si>
+  <si>
+    <t>说明：1.各项内容由各工作组负责填报，牵头单位协调相关成员单位整理填写，县（区）政府协助。2.各字段填写说明见下方"字段填写说明表"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,15 +191,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -151,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -160,15 +266,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -230,33 +327,67 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,29 +667,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -581,22 +716,26 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="4">
-        <v>45492.633599537039</v>
+        <f ca="1">NOW()</f>
+        <v>45516.921693055556</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
         <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -607,42 +746,225 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{267786EA-E661-4422-8BEF-572B14E31570}">
+          <x14:formula1>
+            <xm:f>雅安市县区列表!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A15:A1048576 A3 A6:A13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167DB11B-A9DA-457A-8307-B66BC366934B}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.4140625" customWidth="1"/>
+    <col min="3" max="3" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57E757A-3EEE-48FF-9959-B839B891AFFE}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>